--- a/medicine/Mort/Cimetière_de_Gentilly/Cimetière_de_Gentilly.xlsx
+++ b/medicine/Mort/Cimetière_de_Gentilly/Cimetière_de_Gentilly.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Gentilly</t>
+          <t>Cimetière_de_Gentilly</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière de Gentilly est le cimetière de la commune de Gentilly, dans le Val-de-Marne, situé sur le territoire de la ville de Paris[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière de Gentilly est le cimetière de la commune de Gentilly, dans le Val-de-Marne, situé sur le territoire de la ville de Paris.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Gentilly</t>
+          <t>Cimetière_de_Gentilly</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -519,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Gentilly</t>
+          <t>Cimetière_de_Gentilly</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -537,7 +551,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Bien que possession de la commune de Gentilly, le cimetière est situé dans le 13e arrondissement de Paris, à la limite avec celle-ci. Ceci est dû à l'annexion par Paris des zones situées entre l'ancien mur des Fermiers généraux et l'Enceinte de Thiers en 1860 qui engloba une partie de Gentilly. Il est délimité par le boulevard périphérique, la rue Louis-Pergaud, la rue Francis-de-Miomandre (qui le sépare du stade Charléty), l'avenue Caffieri et la rue de Sainte-Hélène.
 			Entrée de la rue de Sainte-Hélène.
@@ -552,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Gentilly</t>
+          <t>Cimetière_de_Gentilly</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -570,9 +586,11 @@
           <t>Personnalités enterrées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Parmi les défunts inhumés au cimetière de Gentilly, se trouvent[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parmi les défunts inhumés au cimetière de Gentilly, se trouvent :
 </t>
         </is>
       </c>
@@ -583,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Gentilly</t>
+          <t>Cimetière_de_Gentilly</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -601,9 +619,11 @@
           <t>Inspirations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alain Demouzon fait une description du cimetière de Gentilly dans son roman Melchior en automne en 2003[3],[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alain Demouzon fait une description du cimetière de Gentilly dans son roman Melchior en automne en 2003,.
 </t>
         </is>
       </c>
